--- a/resultados/Tabla Completa.xlsx
+++ b/resultados/Tabla Completa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Desktop\Practica1MH\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD11626A-46C7-49D9-B826-5634B7EAC092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71E5F1F-85A8-44AD-AD79-BA082AC83A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11FB9E6F-B78B-44AD-B608-3F704304FA52}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="62">
   <si>
     <t>Nº casos:</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Algoritmo Greedy</t>
+  </si>
+  <si>
+    <t>Algoritmo BL</t>
   </si>
 </sst>
 </file>
@@ -223,7 +226,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -373,7 +376,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -419,7 +422,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -454,6 +457,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -772,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA8B429-1123-409D-A169-A988B43F4B2A}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,9 +794,12 @@
     <col min="9" max="9" width="11.42578125" style="29"/>
     <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -805,23 +817,32 @@
       <c r="K1" s="6"/>
       <c r="L1" s="30"/>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
       <c r="L2" s="31"/>
-    </row>
-    <row r="3" spans="1:12" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="31"/>
+    </row>
+    <row r="3" spans="1:20" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -850,8 +871,23 @@
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
       <c r="L3" s="32"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="15"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="32"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
@@ -871,15 +907,32 @@
       <c r="G4" s="19">
         <v>0</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="20">
+        <v>0</v>
+      </c>
       <c r="I4" s="28">
         <v>1.8</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="16"/>
       <c r="L4" s="32"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="19">
+        <v>0</v>
+      </c>
+      <c r="P4" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>2</v>
+      </c>
+      <c r="R4" s="15"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="32"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -899,15 +952,32 @@
       <c r="G5" s="19">
         <v>0</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="20">
+        <v>0</v>
+      </c>
       <c r="I5" s="28">
         <v>2</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="16"/>
       <c r="L5" s="32"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="19">
+        <v>0</v>
+      </c>
+      <c r="P5" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>2</v>
+      </c>
+      <c r="R5" s="15"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="32"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
@@ -927,7 +997,9 @@
       <c r="G6" s="19">
         <v>0</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="20">
+        <v>0</v>
+      </c>
       <c r="I6" s="28">
         <v>2.1</v>
       </c>
@@ -935,12 +1007,32 @@
       <c r="K6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="33">
-        <f>SUM(H9:H53)*100</f>
-        <v>3334.8860060266602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="35">
+        <f>AVERAGE(H4:H53)</f>
+        <v>0.6669772012053321</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="19">
+        <v>0</v>
+      </c>
+      <c r="P6" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>2</v>
+      </c>
+      <c r="R6" s="15"/>
+      <c r="S6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="35">
+        <f>AVERAGE(P4:P53)</f>
+        <v>0.52468153633325332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
@@ -960,7 +1052,9 @@
       <c r="G7" s="19">
         <v>0</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="20">
+        <v>0</v>
+      </c>
       <c r="I7" s="28">
         <v>2</v>
       </c>
@@ -972,8 +1066,28 @@
         <f>AVERAGE(I4:I53)</f>
         <v>24.495999999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0</v>
+      </c>
+      <c r="P7" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="R7" s="15"/>
+      <c r="S7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="33">
+        <f>AVERAGE(Q4:Q53)</f>
+        <v>593.23599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>14</v>
       </c>
@@ -993,15 +1107,32 @@
       <c r="G8" s="19">
         <v>0</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="20">
+        <v>0</v>
+      </c>
       <c r="I8" s="28">
         <v>2.2999999999999998</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="16"/>
       <c r="L8" s="32"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0</v>
+      </c>
+      <c r="P8" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>2</v>
+      </c>
+      <c r="R8" s="15"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="32"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
@@ -1031,8 +1162,24 @@
       <c r="J9" s="15"/>
       <c r="K9" s="16"/>
       <c r="L9" s="32"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="19">
+        <v>27.271899999999999</v>
+      </c>
+      <c r="P9" s="20">
+        <f>(O9-D9)/O9</f>
+        <v>0.53366065437319365</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>6.8</v>
+      </c>
+      <c r="R9" s="15"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="32"/>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>16</v>
       </c>
@@ -1062,8 +1209,24 @@
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
       <c r="L10" s="32"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="19">
+        <v>31.695699999999999</v>
+      </c>
+      <c r="P10" s="20">
+        <f t="shared" ref="P10:P53" si="1">(O10-D10)/O10</f>
+        <v>0.55518414169746366</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R10" s="15"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="32"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>17</v>
       </c>
@@ -1093,8 +1256,24 @@
       <c r="J11" s="15"/>
       <c r="K11" s="16"/>
       <c r="L11" s="32"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="19">
+        <v>48.0244</v>
+      </c>
+      <c r="P11" s="20">
+        <f t="shared" si="1"/>
+        <v>0.65098595713845875</v>
+      </c>
+      <c r="Q11" s="28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R11" s="15"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="32"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>18</v>
       </c>
@@ -1124,8 +1303,24 @@
       <c r="J12" s="15"/>
       <c r="K12" s="16"/>
       <c r="L12" s="32"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="19">
+        <v>39.252800000000001</v>
+      </c>
+      <c r="P12" s="20">
+        <f t="shared" si="1"/>
+        <v>0.56514669017242336</v>
+      </c>
+      <c r="Q12" s="28">
+        <v>4</v>
+      </c>
+      <c r="R12" s="15"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="32"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1349,23 @@
       </c>
       <c r="J13" s="15"/>
       <c r="L13" s="32"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="19">
+        <v>23.2651</v>
+      </c>
+      <c r="P13" s="20">
+        <f t="shared" si="1"/>
+        <v>-5.5877687995820015E-6</v>
+      </c>
+      <c r="Q13" s="28">
+        <v>9.4</v>
+      </c>
+      <c r="R13" s="15"/>
+      <c r="T13" s="32"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
@@ -1184,8 +1394,23 @@
       </c>
       <c r="J14" s="15"/>
       <c r="L14" s="32"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="19">
+        <v>11.2681</v>
+      </c>
+      <c r="P14" s="20">
+        <f t="shared" si="1"/>
+        <v>0.82906612472377605</v>
+      </c>
+      <c r="Q14" s="28">
+        <v>14.2</v>
+      </c>
+      <c r="R14" s="15"/>
+      <c r="T14" s="32"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>21</v>
       </c>
@@ -1214,8 +1439,23 @@
       </c>
       <c r="J15" s="15"/>
       <c r="L15" s="32"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="19">
+        <v>5.3899499999999998</v>
+      </c>
+      <c r="P15" s="20">
+        <f t="shared" si="1"/>
+        <v>0.60648243490197307</v>
+      </c>
+      <c r="Q15" s="28">
+        <v>15.4</v>
+      </c>
+      <c r="R15" s="15"/>
+      <c r="T15" s="32"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>22</v>
       </c>
@@ -1244,8 +1484,23 @@
       </c>
       <c r="J16" s="15"/>
       <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="19">
+        <v>12.883100000000001</v>
+      </c>
+      <c r="P16" s="20">
+        <f t="shared" si="1"/>
+        <v>0.81663497139663754</v>
+      </c>
+      <c r="Q16" s="28">
+        <v>12.6</v>
+      </c>
+      <c r="R16" s="15"/>
+      <c r="T16" s="32"/>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>23</v>
       </c>
@@ -1274,8 +1529,23 @@
       </c>
       <c r="J17" s="15"/>
       <c r="L17" s="32"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="19">
+        <v>22.486999999999998</v>
+      </c>
+      <c r="P17" s="20">
+        <f t="shared" si="1"/>
+        <v>0.92603726597590164</v>
+      </c>
+      <c r="Q17" s="28">
+        <v>13.6</v>
+      </c>
+      <c r="R17" s="15"/>
+      <c r="T17" s="32"/>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>24</v>
       </c>
@@ -1304,8 +1574,23 @@
       </c>
       <c r="J18" s="5"/>
       <c r="L18" s="32"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="19">
+        <v>14.379300000000001</v>
+      </c>
+      <c r="P18" s="20">
+        <f t="shared" si="1"/>
+        <v>0.80158074454250483</v>
+      </c>
+      <c r="Q18" s="28">
+        <v>10.6</v>
+      </c>
+      <c r="R18" s="5"/>
+      <c r="T18" s="32"/>
+    </row>
+    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>25</v>
       </c>
@@ -1334,8 +1619,23 @@
       </c>
       <c r="J19" s="22"/>
       <c r="L19" s="32"/>
-    </row>
-    <row r="20" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="19">
+        <v>86.247100000000003</v>
+      </c>
+      <c r="P19" s="20">
+        <f t="shared" si="1"/>
+        <v>0.50438008930156375</v>
+      </c>
+      <c r="Q19" s="28">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="R19" s="22"/>
+      <c r="T19" s="32"/>
+    </row>
+    <row r="20" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>26</v>
       </c>
@@ -1364,8 +1664,23 @@
       </c>
       <c r="J20" s="21"/>
       <c r="L20" s="32"/>
-    </row>
-    <row r="21" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="19">
+        <v>139.38</v>
+      </c>
+      <c r="P20" s="20">
+        <f t="shared" si="1"/>
+        <v>0.65484567369780744</v>
+      </c>
+      <c r="Q20" s="28">
+        <v>26.4</v>
+      </c>
+      <c r="R20" s="21"/>
+      <c r="T20" s="32"/>
+    </row>
+    <row r="21" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>27</v>
       </c>
@@ -1394,8 +1709,23 @@
       </c>
       <c r="J21" s="21"/>
       <c r="L21" s="32"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="19">
+        <v>136.28200000000001</v>
+      </c>
+      <c r="P21" s="20">
+        <f t="shared" si="1"/>
+        <v>0.68303891929968963</v>
+      </c>
+      <c r="Q21" s="28">
+        <v>29.6</v>
+      </c>
+      <c r="R21" s="21"/>
+      <c r="T21" s="32"/>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>28</v>
       </c>
@@ -1424,8 +1754,23 @@
       </c>
       <c r="J22" s="23"/>
       <c r="L22" s="32"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N22" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="19">
+        <v>85.378399999999999</v>
+      </c>
+      <c r="P22" s="20">
+        <f t="shared" si="1"/>
+        <v>0.45639119496266733</v>
+      </c>
+      <c r="Q22" s="28">
+        <v>60.2</v>
+      </c>
+      <c r="R22" s="23"/>
+      <c r="T22" s="32"/>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>29</v>
       </c>
@@ -1455,8 +1800,24 @@
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="L23" s="32"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N23" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="19">
+        <v>125.922</v>
+      </c>
+      <c r="P23" s="20">
+        <f t="shared" si="1"/>
+        <v>0.62107407760359912</v>
+      </c>
+      <c r="Q23" s="28">
+        <v>42.6</v>
+      </c>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="32"/>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>30</v>
       </c>
@@ -1486,8 +1847,24 @@
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
       <c r="L24" s="32"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" s="19">
+        <v>53.258699999999997</v>
+      </c>
+      <c r="P24" s="20">
+        <f t="shared" si="1"/>
+        <v>0.74028618798431245</v>
+      </c>
+      <c r="Q24" s="28">
+        <v>214.2</v>
+      </c>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="32"/>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>31</v>
       </c>
@@ -1517,8 +1894,24 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="32"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N25" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="19">
+        <v>25.328199999999999</v>
+      </c>
+      <c r="P25" s="20">
+        <f t="shared" si="1"/>
+        <v>0.46050883994913572</v>
+      </c>
+      <c r="Q25" s="28">
+        <v>175.6</v>
+      </c>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="32"/>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1941,24 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="32"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N26" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="19">
+        <v>44.845999999999997</v>
+      </c>
+      <c r="P26" s="20">
+        <f t="shared" si="1"/>
+        <v>0.65782054140837976</v>
+      </c>
+      <c r="Q26" s="28">
+        <v>262.8</v>
+      </c>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="32"/>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>33</v>
       </c>
@@ -1579,8 +1988,24 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="32"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N27" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="19">
+        <v>32.4711</v>
+      </c>
+      <c r="P27" s="20">
+        <f t="shared" si="1"/>
+        <v>0.73389752733971469</v>
+      </c>
+      <c r="Q27" s="28">
+        <v>85.8</v>
+      </c>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="32"/>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>34</v>
       </c>
@@ -1610,8 +2035,24 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="32"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N28" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O28" s="19">
+        <v>43.802399999999999</v>
+      </c>
+      <c r="P28" s="20">
+        <f t="shared" si="1"/>
+        <v>0.60731580917940797</v>
+      </c>
+      <c r="Q28" s="28">
+        <v>129.6</v>
+      </c>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="32"/>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>35</v>
       </c>
@@ -1641,8 +2082,24 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="32"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N29" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O29" s="19">
+        <v>350.71600000000001</v>
+      </c>
+      <c r="P29" s="20">
+        <f t="shared" si="1"/>
+        <v>0.5188996509996664</v>
+      </c>
+      <c r="Q29" s="28">
+        <v>547.20000000000005</v>
+      </c>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="32"/>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>36</v>
       </c>
@@ -1672,8 +2129,24 @@
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
       <c r="L30" s="32"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N30" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O30" s="19">
+        <v>238.83500000000001</v>
+      </c>
+      <c r="P30" s="20">
+        <f t="shared" si="1"/>
+        <v>0.46784491385265981</v>
+      </c>
+      <c r="Q30" s="28">
+        <v>828.8</v>
+      </c>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="32"/>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>37</v>
       </c>
@@ -1703,8 +2176,24 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="32"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N31" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31" s="19">
+        <v>178.767</v>
+      </c>
+      <c r="P31" s="20">
+        <f t="shared" si="1"/>
+        <v>0.40492825857121839</v>
+      </c>
+      <c r="Q31" s="28">
+        <v>1203</v>
+      </c>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="32"/>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>38</v>
       </c>
@@ -1734,8 +2223,24 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="32"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N32" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O32" s="19">
+        <v>273.17500000000001</v>
+      </c>
+      <c r="P32" s="20">
+        <f t="shared" si="1"/>
+        <v>0.49683111558525123</v>
+      </c>
+      <c r="Q32" s="28">
+        <v>665.8</v>
+      </c>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="32"/>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>39</v>
       </c>
@@ -1765,8 +2270,24 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="32"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N33" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="O33" s="19">
+        <v>267.63400000000001</v>
+      </c>
+      <c r="P33" s="20">
+        <f t="shared" si="1"/>
+        <v>0.52367883004401161</v>
+      </c>
+      <c r="Q33" s="28">
+        <v>1315.4</v>
+      </c>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="32"/>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>40</v>
       </c>
@@ -1796,8 +2317,24 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="32"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N34" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="O34" s="19">
+        <v>46.1691</v>
+      </c>
+      <c r="P34" s="20">
+        <f t="shared" si="1"/>
+        <v>0.74560604386917007</v>
+      </c>
+      <c r="Q34" s="28">
+        <v>419.6</v>
+      </c>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="32"/>
+    </row>
+    <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>41</v>
       </c>
@@ -1827,8 +2364,24 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="32"/>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N35" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="O35" s="19">
+        <v>49.853099999999998</v>
+      </c>
+      <c r="P35" s="20">
+        <f t="shared" si="1"/>
+        <v>0.62311410925299127</v>
+      </c>
+      <c r="Q35" s="28">
+        <v>188.2</v>
+      </c>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="32"/>
+    </row>
+    <row r="36" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>42</v>
       </c>
@@ -1858,8 +2411,24 @@
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
       <c r="L36" s="32"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N36" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36" s="19">
+        <v>56.665700000000001</v>
+      </c>
+      <c r="P36" s="20">
+        <f t="shared" si="1"/>
+        <v>0.67296618589376289</v>
+      </c>
+      <c r="Q36" s="28">
+        <v>317.60000000000002</v>
+      </c>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="32"/>
+    </row>
+    <row r="37" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>43</v>
       </c>
@@ -1889,8 +2458,24 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="32"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N37" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O37" s="19">
+        <v>47.527000000000001</v>
+      </c>
+      <c r="P37" s="20">
+        <f t="shared" si="1"/>
+        <v>0.58995244808214065</v>
+      </c>
+      <c r="Q37" s="28">
+        <v>306.2</v>
+      </c>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="32"/>
+    </row>
+    <row r="38" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>44</v>
       </c>
@@ -1920,8 +2505,24 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="32"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N38" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O38" s="19">
+        <v>105.574</v>
+      </c>
+      <c r="P38" s="20">
+        <f t="shared" si="1"/>
+        <v>0.82843863072347546</v>
+      </c>
+      <c r="Q38" s="28">
+        <v>261.60000000000002</v>
+      </c>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="32"/>
+    </row>
+    <row r="39" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>45</v>
       </c>
@@ -1951,8 +2552,24 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="32"/>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N39" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O39" s="19">
+        <v>282.87099999999998</v>
+      </c>
+      <c r="P39" s="20">
+        <f t="shared" si="1"/>
+        <v>0.45051005582049058</v>
+      </c>
+      <c r="Q39" s="28">
+        <v>1385.4</v>
+      </c>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="32"/>
+    </row>
+    <row r="40" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>46</v>
       </c>
@@ -1982,8 +2599,24 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="32"/>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N40" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O40" s="19">
+        <v>367.50700000000001</v>
+      </c>
+      <c r="P40" s="20">
+        <f t="shared" si="1"/>
+        <v>0.45880045822256715</v>
+      </c>
+      <c r="Q40" s="28">
+        <v>1832.8</v>
+      </c>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="32"/>
+    </row>
+    <row r="41" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>47</v>
       </c>
@@ -2013,8 +2646,24 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="32"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N41" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O41" s="19">
+        <v>435.94400000000002</v>
+      </c>
+      <c r="P41" s="20">
+        <f t="shared" si="1"/>
+        <v>0.56882757877158541</v>
+      </c>
+      <c r="Q41" s="28">
+        <v>710.8</v>
+      </c>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="32"/>
+    </row>
+    <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>48</v>
       </c>
@@ -2044,8 +2693,24 @@
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
       <c r="L42" s="32"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N42" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O42" s="19">
+        <v>323.70800000000003</v>
+      </c>
+      <c r="P42" s="20">
+        <f t="shared" si="1"/>
+        <v>0.47919050502304239</v>
+      </c>
+      <c r="Q42" s="28">
+        <v>957.8</v>
+      </c>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="32"/>
+    </row>
+    <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>49</v>
       </c>
@@ -2075,8 +2740,24 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="32"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N43" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="O43" s="19">
+        <v>421.12</v>
+      </c>
+      <c r="P43" s="20">
+        <f t="shared" si="1"/>
+        <v>0.57685757028874662</v>
+      </c>
+      <c r="Q43" s="28">
+        <v>861</v>
+      </c>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="32"/>
+    </row>
+    <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>50</v>
       </c>
@@ -2106,8 +2787,24 @@
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="32"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N44" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="O44" s="19">
+        <v>68.787400000000005</v>
+      </c>
+      <c r="P44" s="20">
+        <f t="shared" si="1"/>
+        <v>0.66060528527026319</v>
+      </c>
+      <c r="Q44" s="28">
+        <v>481.2</v>
+      </c>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="32"/>
+    </row>
+    <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>51</v>
       </c>
@@ -2137,8 +2834,24 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="32"/>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N45" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O45" s="19">
+        <v>61.076999999999998</v>
+      </c>
+      <c r="P45" s="20">
+        <f t="shared" si="1"/>
+        <v>0.56138153478396779</v>
+      </c>
+      <c r="Q45" s="28">
+        <v>792.8</v>
+      </c>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="32"/>
+    </row>
+    <row r="46" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>52</v>
       </c>
@@ -2168,8 +2881,24 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="32"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N46" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O46" s="19">
+        <v>49.595599999999997</v>
+      </c>
+      <c r="P46" s="20">
+        <f t="shared" si="1"/>
+        <v>0.46054750824670737</v>
+      </c>
+      <c r="Q46" s="28">
+        <v>711.8</v>
+      </c>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="32"/>
+    </row>
+    <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>53</v>
       </c>
@@ -2199,8 +2928,24 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="32"/>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N47" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="O47" s="19">
+        <v>77.378100000000003</v>
+      </c>
+      <c r="P47" s="20">
+        <f t="shared" si="1"/>
+        <v>0.66482002013488961</v>
+      </c>
+      <c r="Q47" s="28">
+        <v>514.20000000000005</v>
+      </c>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="32"/>
+    </row>
+    <row r="48" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>54</v>
       </c>
@@ -2230,8 +2975,24 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="32"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N48" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="O48" s="19">
+        <v>66.001999999999995</v>
+      </c>
+      <c r="P48" s="20">
+        <f t="shared" si="1"/>
+        <v>0.57920956940699664</v>
+      </c>
+      <c r="Q48" s="28">
+        <v>495.2</v>
+      </c>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="32"/>
+    </row>
+    <row r="49" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
         <v>55</v>
       </c>
@@ -2259,8 +3020,22 @@
         <v>57.6</v>
       </c>
       <c r="L49" s="32"/>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N49" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="O49" s="19">
+        <v>567.29300000000001</v>
+      </c>
+      <c r="P49" s="20">
+        <f t="shared" si="1"/>
+        <v>0.59853319184266685</v>
+      </c>
+      <c r="Q49" s="28">
+        <v>3202.6</v>
+      </c>
+      <c r="T49" s="32"/>
+    </row>
+    <row r="50" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>56</v>
       </c>
@@ -2288,8 +3063,22 @@
         <v>58.3</v>
       </c>
       <c r="L50" s="32"/>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N50" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O50" s="19">
+        <v>457.54899999999998</v>
+      </c>
+      <c r="P50" s="20">
+        <f t="shared" si="1"/>
+        <v>0.50037504179880188</v>
+      </c>
+      <c r="Q50" s="28">
+        <v>2081.4</v>
+      </c>
+      <c r="T50" s="32"/>
+    </row>
+    <row r="51" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>57</v>
       </c>
@@ -2317,8 +3106,22 @@
         <v>55.6</v>
       </c>
       <c r="L51" s="32"/>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N51" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O51" s="19">
+        <v>561.82000000000005</v>
+      </c>
+      <c r="P51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.5964092769926328</v>
+      </c>
+      <c r="Q51" s="28">
+        <v>1538</v>
+      </c>
+      <c r="T51" s="32"/>
+    </row>
+    <row r="52" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>58</v>
       </c>
@@ -2346,8 +3149,22 @@
         <v>56.3</v>
       </c>
       <c r="L52" s="32"/>
-    </row>
-    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N52" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="O52" s="19">
+        <v>379.12599999999998</v>
+      </c>
+      <c r="P52" s="20">
+        <f t="shared" si="1"/>
+        <v>0.40281170376074704</v>
+      </c>
+      <c r="Q52" s="28">
+        <v>4543.2</v>
+      </c>
+      <c r="T52" s="32"/>
+    </row>
+    <row r="53" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
         <v>59</v>
       </c>
@@ -2375,10 +3192,25 @@
         <v>56</v>
       </c>
       <c r="L53" s="32"/>
+      <c r="N53" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="O53" s="19">
+        <v>413.79899999999998</v>
+      </c>
+      <c r="P53" s="20">
+        <f t="shared" si="1"/>
+        <v>0.39860507154440195</v>
+      </c>
+      <c r="Q53" s="28">
+        <v>2303.6</v>
+      </c>
+      <c r="T53" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="F2:I2"/>
+    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
